--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/Library/Containers/com.tencent.xinWeChat/Data/Library/Application Support/com.tencent.xinWeChat/2.0b4.0.9/22414477a4b1cab224446bfee0bc34c6/Message/MessageTemp/a692113c9ada23e2cef5d48066d3d517/File/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/wiki-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2CCA8C7C-8269-064F-ABED-A739E847E4C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A637AD24-446A-F548-8262-35F901333A8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -235,6 +235,10 @@
       </rPr>
       <t>路由</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>book</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:AMK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -604,8 +608,8 @@
     <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.19921875" style="1" customWidth="1"/>
@@ -725,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A7:AMK11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -734,12 +738,12 @@
     <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="45.3984375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="58.796875" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.59765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="42.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
     <col min="13" max="1025" width="11.59765625" style="1" customWidth="1"/>
   </cols>
@@ -808,7 +812,7 @@
         <v>33</v>
       </c>
       <c r="O8" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:15">
@@ -837,10 +841,10 @@
         <v>36</v>
       </c>
       <c r="N9" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="4:15">
@@ -869,7 +873,7 @@
         <v>33</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:15">
@@ -898,10 +902,10 @@
         <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="O11">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/wiki-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A637AD24-446A-F548-8262-35F901333A8E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54F3537C-97DE-8F49-AB1B-B86E61EE0A4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -730,7 +730,7 @@
   <dimension ref="A7:AMK11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/wiki-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/wiki-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54F3537C-97DE-8F49-AB1B-B86E61EE0A4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -245,8 +252,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -596,16 +603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:AMK9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:N9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="49.59765625" style="1" customWidth="1"/>
@@ -617,11 +624,11 @@
     <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
     <col min="13" max="13" width="18.59765625" style="1" customWidth="1"/>
     <col min="14" max="14" width="19.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -656,7 +663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -685,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -726,16 +733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:AMK11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="45.3984375" style="1" customWidth="1"/>
@@ -745,10 +752,11 @@
     <col min="10" max="10" width="18.59765625" style="1" customWidth="1"/>
     <col min="11" max="11" width="42.59765625" style="1" customWidth="1"/>
     <col min="12" max="12" width="19.19921875" style="1" customWidth="1"/>
-    <col min="13" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.59765625" style="1" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -786,7 +794,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
@@ -812,10 +820,10 @@
         <v>33</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -847,7 +855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>37</v>
       </c>
@@ -873,10 +881,10 @@
         <v>33</v>
       </c>
       <c r="O10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>39</v>
       </c>
@@ -920,24 +928,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A7:AMK23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:G23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
     <col min="7" max="7" width="19" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
@@ -951,7 +959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
@@ -959,7 +967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -967,7 +975,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>34</v>
       </c>
@@ -975,7 +983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>34</v>
       </c>
@@ -983,7 +991,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>34</v>
       </c>
@@ -991,7 +999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>34</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>39</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>39</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>39</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/wiki-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/wiki-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{051332B6-FBA9-CD49-9517-C16EC75BDA99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -248,12 +250,69 @@
     <t>book</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>NAMESPACE</t>
+  </si>
+  <si>
+    <t>FD_LEVEL</t>
+  </si>
+  <si>
+    <t>@SORT</t>
+  </si>
+  <si>
+    <t>NEED_ROLES</t>
+  </si>
+  <si>
+    <t>IS_ENABLED</t>
+  </si>
+  <si>
+    <t>@POSITION</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 4, "positionY": 0, "height": 4}</t>
+  </si>
+  <si>
+    <t>{"width": 4, "positionX": 0, "positionY": 4, "height": 4}</t>
+  </si>
+  <si>
+    <t>orgwiki</t>
+  </si>
+  <si>
+    <r>
+      <t>Wiki</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空间</t>
+    </r>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>donut_small</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -277,6 +336,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -298,10 +363,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,14 +669,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -628,7 +694,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -692,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -733,14 +799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+    <sheetView topLeftCell="D3" workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -756,7 +822,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -794,7 +860,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
         <v>28</v>
       </c>
@@ -823,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -855,7 +921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>37</v>
       </c>
@@ -884,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>39</v>
       </c>
@@ -928,14 +994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -945,7 +1011,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
@@ -959,7 +1025,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>34</v>
       </c>
@@ -967,7 +1033,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>34</v>
       </c>
@@ -975,7 +1041,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>34</v>
       </c>
@@ -983,7 +1049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>34</v>
       </c>
@@ -991,7 +1057,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1065,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>34</v>
       </c>
@@ -1007,7 +1073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
         <v>34</v>
       </c>
@@ -1015,7 +1081,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="4:7">
       <c r="F15" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1089,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:7">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -1031,7 +1097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="6:7">
       <c r="F17" t="s">
         <v>39</v>
       </c>
@@ -1039,7 +1105,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:7">
       <c r="F18" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1113,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:7">
       <c r="F19" t="s">
         <v>39</v>
       </c>
@@ -1055,7 +1121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:7">
       <c r="F20" t="s">
         <v>39</v>
       </c>
@@ -1063,7 +1129,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:7">
       <c r="F21" t="s">
         <v>39</v>
       </c>
@@ -1071,7 +1137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="6:7">
       <c r="F22" t="s">
         <v>39</v>
       </c>
@@ -1079,7 +1145,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="6:7">
       <c r="F23" t="s">
         <v>39</v>
       </c>
@@ -1096,4 +1162,170 @@
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF50D4A-758B-5340-AC90-633560774631}">
+  <dimension ref="D7:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="3" width="11.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.19921875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.3984375" style="3" customWidth="1"/>
+    <col min="7" max="8" width="23.796875" style="3" customWidth="1"/>
+    <col min="9" max="10" width="24" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.3984375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.59765625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="28.59765625" style="3" customWidth="1"/>
+    <col min="14" max="17" width="11.59765625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="46.3984375" style="3" customWidth="1"/>
+    <col min="19" max="1025" width="11.59765625" style="3" customWidth="1"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:18">
+      <c r="D7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="4:18" ht="14">
+      <c r="E8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O8" s="3">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="4:18" ht="14">
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O9" s="3">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/wiki-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{051332B6-FBA9-CD49-9517-C16EC75BDA99}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6B5D61D-C192-3842-9A94-A098ADD5473A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -105,16 +105,7 @@
     <t>PAGE_PERMISSION_CODE</t>
   </si>
   <si>
-    <t>PARENT_CODE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
   </si>
   <si>
     <t>choerodon.code.organization-wiki-management</t>
@@ -306,6 +297,22 @@
   </si>
   <si>
     <t>donut_small</t>
+  </si>
+  <si>
+    <t>@PARENT_CODE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RESOURCE_LEVEL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@SORT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -363,11 +370,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -743,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>16</v>
@@ -772,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -802,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -844,46 +853,46 @@
       <c r="J7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>27</v>
+      <c r="O7" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O8" s="1">
         <v>6</v>
@@ -891,13 +900,13 @@
     </row>
     <row r="9" spans="4:15">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -906,16 +915,16 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O9">
         <v>2</v>
@@ -923,28 +932,28 @@
     </row>
     <row r="10" spans="4:15">
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L10" t="s">
         <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O10">
         <v>8</v>
@@ -952,13 +961,13 @@
     </row>
     <row r="11" spans="4:15">
       <c r="F11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -967,16 +976,16 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L11" t="s">
         <v>19</v>
       </c>
       <c r="M11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O11">
         <v>2</v>
@@ -1013,144 +1022,144 @@
   <sheetData>
     <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="4:7">
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="4:7">
       <c r="F11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="4:7">
       <c r="F12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="F13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="4:7">
       <c r="F14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="4:7">
       <c r="F15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="4:7">
       <c r="F16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF50D4A-758B-5340-AC90-633560774631}">
   <dimension ref="D7:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1200,7 @@
   <sheetData>
     <row r="7" spans="4:18">
       <c r="D7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -1200,7 +1209,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>21</v>
@@ -1209,51 +1218,51 @@
         <v>22</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="14">
       <c r="E8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>13</v>
@@ -1262,10 +1271,10 @@
         <v>14</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O8" s="3">
         <v>3</v>
@@ -1277,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="4:18" ht="14">
@@ -1288,28 +1297,28 @@
         <v>13</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="O9" s="3">
         <v>5</v>
@@ -1321,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/wiki-service/src/main/resources/script/front/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/song/Projects/choerodon/service/wiki-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A6B5D61D-C192-3842-9A94-A098ADD5473A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
-    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId4"/>
+    <sheet name="工作表1" sheetId="5" r:id="rId3"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -314,12 +314,67 @@
     <t>@SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -348,6 +403,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -678,14 +739,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
@@ -703,7 +764,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
@@ -738,7 +799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
@@ -767,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -808,14 +869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
@@ -831,7 +892,7 @@
     <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
@@ -869,7 +930,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="2" t="s">
         <v>25</v>
       </c>
@@ -898,7 +959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>31</v>
       </c>
@@ -930,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>34</v>
       </c>
@@ -959,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="4:15" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>36</v>
       </c>
@@ -1003,14 +1064,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D7:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="26.796875" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" customWidth="1"/>
+    <col min="7" max="7" width="46.19921875" customWidth="1"/>
+    <col min="8" max="8" width="25.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="F13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
@@ -1020,7 +1186,7 @@
     <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="2" t="s">
         <v>37</v>
       </c>
@@ -1034,7 +1200,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
@@ -1042,7 +1208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F9" t="s">
         <v>31</v>
       </c>
@@ -1050,7 +1216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F10" t="s">
         <v>31</v>
       </c>
@@ -1058,7 +1224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F11" t="s">
         <v>31</v>
       </c>
@@ -1066,7 +1232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F12" t="s">
         <v>31</v>
       </c>
@@ -1074,7 +1240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F13" t="s">
         <v>31</v>
       </c>
@@ -1082,7 +1248,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F14" t="s">
         <v>31</v>
       </c>
@@ -1090,7 +1256,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F15" t="s">
         <v>31</v>
       </c>
@@ -1098,7 +1264,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="4:7" x14ac:dyDescent="0.15">
       <c r="F16" t="s">
         <v>36</v>
       </c>
@@ -1106,7 +1272,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F17" t="s">
         <v>36</v>
       </c>
@@ -1114,7 +1280,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="6:7">
+    <row r="18" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F18" t="s">
         <v>36</v>
       </c>
@@ -1122,7 +1288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="6:7">
+    <row r="19" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F19" t="s">
         <v>36</v>
       </c>
@@ -1130,7 +1296,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="6:7">
+    <row r="20" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F20" t="s">
         <v>36</v>
       </c>
@@ -1138,7 +1304,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="6:7">
+    <row r="21" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F21" t="s">
         <v>36</v>
       </c>
@@ -1146,7 +1312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="6:7">
+    <row r="22" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F22" t="s">
         <v>36</v>
       </c>
@@ -1154,7 +1320,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="6:7">
+    <row r="23" spans="6:7" x14ac:dyDescent="0.15">
       <c r="F23" t="s">
         <v>36</v>
       </c>
@@ -1173,15 +1339,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF50D4A-758B-5340-AC90-633560774631}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="11.59765625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.19921875" style="3" customWidth="1"/>
@@ -1198,7 +1364,7 @@
     <col min="1026" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:18">
+    <row r="7" spans="4:18" x14ac:dyDescent="0.15">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1245,7 +1411,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="4:18" ht="14">
+    <row r="8" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1289,7 +1455,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="4:18" ht="14">
+    <row r="9" spans="4:18" ht="14" x14ac:dyDescent="0.15">
       <c r="E9" s="3" t="s">
         <v>13</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表1" sheetId="5" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="5" r:id="rId3"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
     <sheet name="IAM_DASHBOARD" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -315,9 +315,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
     <t>*ID</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -367,6 +364,10 @@
   </si>
   <si>
     <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1068,7 +1069,7 @@
   <dimension ref="D7:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:F24"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1081,85 +1082,85 @@
   <sheetData>
     <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
         <v>78</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>79</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>81</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32340" windowHeight="18980" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -307,68 +307,68 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>*ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>project</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>@TYPE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>@SORT</t>
+    <t>SORT</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGILE</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_project</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_project</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F11"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -922,13 +922,13 @@
         <v>75</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -957,7 +957,7 @@
         <v>30</v>
       </c>
       <c r="O8" s="1">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="4:15" x14ac:dyDescent="0.15">
@@ -989,7 +989,7 @@
         <v>58</v>
       </c>
       <c r="O9">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="4:15" x14ac:dyDescent="0.15">
@@ -1018,7 +1018,7 @@
         <v>30</v>
       </c>
       <c r="O10">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="4:15" x14ac:dyDescent="0.15">
@@ -1050,7 +1050,7 @@
         <v>58</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D7:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
@@ -1082,85 +1082,85 @@
   <sheetData>
     <row r="7" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
         <v>78</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>79</v>
-      </c>
-      <c r="G7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="8" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F9" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F11" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F12" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="4:8" x14ac:dyDescent="0.15">
       <c r="F13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
